--- a/output_validation/03_pin_percentage_total_OCHA.xlsx
+++ b/output_validation/03_pin_percentage_total_OCHA.xlsx
@@ -31,34 +31,34 @@
     <t>TotN</t>
   </si>
   <si>
-    <t>% 1-2</t>
-  </si>
-  <si>
-    <t># 1-2</t>
-  </si>
-  <si>
-    <t>% 3</t>
-  </si>
-  <si>
-    <t># 3</t>
-  </si>
-  <si>
-    <t>% 4</t>
-  </si>
-  <si>
-    <t># 4</t>
-  </si>
-  <si>
-    <t>% 5</t>
-  </si>
-  <si>
-    <t># 5</t>
-  </si>
-  <si>
-    <t>% Tot PiN (3+)</t>
-  </si>
-  <si>
-    <t># Tot PiN (3+)</t>
+    <t>% severity levels 1-2</t>
+  </si>
+  <si>
+    <t># severity levels 1-2</t>
+  </si>
+  <si>
+    <t>% severity level 3</t>
+  </si>
+  <si>
+    <t># severity level 3</t>
+  </si>
+  <si>
+    <t>% severity level 4</t>
+  </si>
+  <si>
+    <t># severity level 4</t>
+  </si>
+  <si>
+    <t>% severity level 5</t>
+  </si>
+  <si>
+    <t># severity level 5</t>
+  </si>
+  <si>
+    <t>% Tot PiN (severity levels 3-5)</t>
+  </si>
+  <si>
+    <t># Tot PiN (severity levels 3-5)</t>
   </si>
   <si>
     <t>Area severity</t>

--- a/output_validation/03_pin_percentage_total_OCHA.xlsx
+++ b/output_validation/03_pin_percentage_total_OCHA.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="39">
-  <si>
-    <t>admin1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="42">
+  <si>
+    <t>admin3</t>
   </si>
   <si>
     <t>Population group</t>
@@ -61,58 +61,58 @@
     <t>Area severity</t>
   </si>
   <si>
-    <t>MMR001</t>
-  </si>
-  <si>
-    <t>MMR002</t>
-  </si>
-  <si>
-    <t>MMR003</t>
-  </si>
-  <si>
-    <t>MMR004</t>
-  </si>
-  <si>
-    <t>MMR005</t>
-  </si>
-  <si>
-    <t>MMR006</t>
-  </si>
-  <si>
-    <t>MMR007</t>
-  </si>
-  <si>
-    <t>MMR008</t>
-  </si>
-  <si>
-    <t>MMR009</t>
-  </si>
-  <si>
-    <t>MMR010</t>
-  </si>
-  <si>
-    <t>MMR011</t>
-  </si>
-  <si>
-    <t>MMR012</t>
-  </si>
-  <si>
-    <t>MMR013</t>
-  </si>
-  <si>
-    <t>MMR014</t>
-  </si>
-  <si>
-    <t>MMR015</t>
-  </si>
-  <si>
-    <t>MMR016</t>
-  </si>
-  <si>
-    <t>MMR017</t>
-  </si>
-  <si>
-    <t>MMR018</t>
+    <t>MMR008003</t>
+  </si>
+  <si>
+    <t>MMR009018</t>
+  </si>
+  <si>
+    <t>MMR009019</t>
+  </si>
+  <si>
+    <t>MMR009020</t>
+  </si>
+  <si>
+    <t>MMR012003</t>
+  </si>
+  <si>
+    <t>MMR012004</t>
+  </si>
+  <si>
+    <t>MMR012006</t>
+  </si>
+  <si>
+    <t>MMR012010</t>
+  </si>
+  <si>
+    <t>MMR012011</t>
+  </si>
+  <si>
+    <t>MMR012014</t>
+  </si>
+  <si>
+    <t>MMR012015</t>
+  </si>
+  <si>
+    <t>MMR012016</t>
+  </si>
+  <si>
+    <t>MMR001001</t>
+  </si>
+  <si>
+    <t>MMR001002</t>
+  </si>
+  <si>
+    <t>MMR001004</t>
+  </si>
+  <si>
+    <t>MMR002005</t>
+  </si>
+  <si>
+    <t>MMR002006</t>
+  </si>
+  <si>
+    <t>MMR002007</t>
   </si>
   <si>
     <t>ocap</t>
@@ -124,13 +124,22 @@
     <t>3</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>MMR012001</t>
+  </si>
+  <si>
+    <t>MMR012005</t>
+  </si>
+  <si>
+    <t>MMR012007</t>
+  </si>
+  <si>
     <t>idp</t>
   </si>
   <si>
     <t>ret</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>ndsp</t>
@@ -549,13 +558,13 @@
         <v>32</v>
       </c>
       <c r="C2">
-        <v>94127</v>
+        <v>206737</v>
       </c>
       <c r="D2">
-        <v>91.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>86039</v>
+        <v>206737</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -564,10 +573,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8088</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -576,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>8088</v>
+        <v>0</v>
       </c>
       <c r="N2" t="s">
         <v>33</v>
@@ -593,25 +602,25 @@
         <v>32</v>
       </c>
       <c r="C3">
-        <v>49284</v>
+        <v>240015</v>
       </c>
       <c r="D3">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>14556</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>67.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>33223</v>
+        <v>240015</v>
       </c>
       <c r="H3">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1505</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -620,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>70.5</v>
+        <v>100</v>
       </c>
       <c r="M3">
-        <v>34728</v>
+        <v>240015</v>
       </c>
       <c r="N3" t="s">
         <v>34</v>
@@ -637,19 +646,19 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>71100</v>
+        <v>49284</v>
       </c>
       <c r="D4">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>47660</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>23440</v>
+        <v>49284</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -664,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="M4">
-        <v>23440</v>
+        <v>49284</v>
       </c>
       <c r="N4" t="s">
         <v>34</v>
@@ -681,37 +690,37 @@
         <v>32</v>
       </c>
       <c r="C5">
-        <v>79357</v>
+        <v>469612</v>
       </c>
       <c r="D5">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>9981</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>75.5</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>59918</v>
+        <v>469612</v>
       </c>
       <c r="H5">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2726</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>6732</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>87.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>69376</v>
+        <v>469612</v>
       </c>
       <c r="N5" t="s">
         <v>34</v>
@@ -725,25 +734,25 @@
         <v>32</v>
       </c>
       <c r="C6">
-        <v>206737</v>
+        <v>94127</v>
       </c>
       <c r="D6">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>25327</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>87.7</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G6">
-        <v>181410</v>
+        <v>65556</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>30.4</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>28571</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -752,13 +761,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>87.7</v>
+        <v>100</v>
       </c>
       <c r="M6">
-        <v>181410</v>
+        <v>94127</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -769,25 +778,25 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>284225</v>
+        <v>85275</v>
       </c>
       <c r="D7">
-        <v>72.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>206236</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>21.5</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>60998</v>
+        <v>85275</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>16992</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -796,10 +805,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>27.4</v>
+        <v>100</v>
       </c>
       <c r="M7">
-        <v>77989</v>
+        <v>85275</v>
       </c>
       <c r="N7" t="s">
         <v>34</v>
@@ -813,37 +822,37 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>114132</v>
+        <v>173573</v>
       </c>
       <c r="D8">
-        <v>79.2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>90441</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>15.9</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="G8">
-        <v>18169</v>
+        <v>149515</v>
       </c>
       <c r="H8">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>5522</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>24058</v>
       </c>
       <c r="L8">
-        <v>20.8</v>
+        <v>100</v>
       </c>
       <c r="M8">
-        <v>23692</v>
+        <v>173573</v>
       </c>
       <c r="N8" t="s">
         <v>34</v>
@@ -857,13 +866,13 @@
         <v>32</v>
       </c>
       <c r="C9">
-        <v>82380</v>
+        <v>103387</v>
       </c>
       <c r="D9">
         <v>100</v>
       </c>
       <c r="E9">
-        <v>82380</v>
+        <v>103387</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -901,19 +910,19 @@
         <v>32</v>
       </c>
       <c r="C10">
-        <v>77970</v>
+        <v>93763</v>
       </c>
       <c r="D10">
-        <v>67.8</v>
+        <v>41.9</v>
       </c>
       <c r="E10">
-        <v>52840</v>
+        <v>39294</v>
       </c>
       <c r="F10">
-        <v>32.2</v>
+        <v>58.1</v>
       </c>
       <c r="G10">
-        <v>25129</v>
+        <v>54469</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -928,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>32.2</v>
+        <v>58.1</v>
       </c>
       <c r="M10">
-        <v>25129</v>
+        <v>54469</v>
       </c>
       <c r="N10" t="s">
         <v>34</v>
@@ -948,16 +957,16 @@
         <v>469612</v>
       </c>
       <c r="D11">
-        <v>86.2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>404809</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>13.8</v>
+        <v>100</v>
       </c>
       <c r="G11">
-        <v>64803</v>
+        <v>469612</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -972,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.8</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>64803</v>
+        <v>469612</v>
       </c>
       <c r="N11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -989,25 +998,25 @@
         <v>32</v>
       </c>
       <c r="C12">
-        <v>93763</v>
+        <v>114132</v>
       </c>
       <c r="D12">
-        <v>77.2</v>
+        <v>38.6</v>
       </c>
       <c r="E12">
-        <v>72341</v>
+        <v>44104</v>
       </c>
       <c r="F12">
-        <v>14.6</v>
+        <v>61.4</v>
       </c>
       <c r="G12">
-        <v>13670</v>
+        <v>70028</v>
       </c>
       <c r="H12">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>7752</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1016,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.8</v>
+        <v>61.4</v>
       </c>
       <c r="M12">
-        <v>21422</v>
+        <v>70028</v>
       </c>
       <c r="N12" t="s">
         <v>34</v>
@@ -1033,40 +1042,40 @@
         <v>32</v>
       </c>
       <c r="C13">
-        <v>103387</v>
+        <v>94050</v>
       </c>
       <c r="D13">
-        <v>29.8</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>30769</v>
+        <v>94050</v>
       </c>
       <c r="F13">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>64124</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3865</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>4628</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>70.2</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>72618</v>
+        <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1077,25 +1086,25 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>94050</v>
+        <v>206737</v>
       </c>
       <c r="D14">
-        <v>55.5</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E14">
-        <v>52237</v>
+        <v>188972</v>
       </c>
       <c r="F14">
-        <v>40.4</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>38011</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>8.6</v>
       </c>
       <c r="I14">
-        <v>3802</v>
+        <v>17765</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1104,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>44.5</v>
+        <v>8.6</v>
       </c>
       <c r="M14">
-        <v>41813</v>
+        <v>17765</v>
       </c>
       <c r="N14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1121,25 +1130,25 @@
         <v>32</v>
       </c>
       <c r="C15">
-        <v>240015</v>
+        <v>94127</v>
       </c>
       <c r="D15">
-        <v>88</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E15">
-        <v>211311</v>
+        <v>86039</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>28704</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>8088</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1148,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="M15">
-        <v>28704</v>
+        <v>8088</v>
       </c>
       <c r="N15" t="s">
         <v>33</v>
@@ -1165,25 +1174,25 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>173573</v>
+        <v>85275</v>
       </c>
       <c r="D16">
-        <v>69.7</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E16">
-        <v>120951</v>
+        <v>77948</v>
       </c>
       <c r="F16">
-        <v>30.3</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>52623</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>7328</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1192,13 +1201,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>30.3</v>
+        <v>8.6</v>
       </c>
       <c r="M16">
-        <v>52623</v>
+        <v>7328</v>
       </c>
       <c r="N16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1209,25 +1218,25 @@
         <v>32</v>
       </c>
       <c r="C17">
-        <v>70760</v>
+        <v>82380</v>
       </c>
       <c r="D17">
-        <v>93.09999999999999</v>
+        <v>29.5</v>
       </c>
       <c r="E17">
-        <v>65883</v>
+        <v>24331</v>
       </c>
       <c r="F17">
-        <v>6.9</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="G17">
-        <v>4877</v>
+        <v>55534</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2515</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1236,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.9</v>
+        <v>70.5</v>
       </c>
       <c r="M17">
-        <v>4877</v>
+        <v>58049</v>
       </c>
       <c r="N17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1253,25 +1262,25 @@
         <v>32</v>
       </c>
       <c r="C18">
-        <v>81840</v>
+        <v>284225</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>29.5</v>
       </c>
       <c r="E18">
-        <v>81840</v>
+        <v>83946</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>191602</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>8677</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1280,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>200279</v>
       </c>
       <c r="N18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1297,25 +1306,25 @@
         <v>32</v>
       </c>
       <c r="C19">
-        <v>85275</v>
+        <v>70760</v>
       </c>
       <c r="D19">
-        <v>72.59999999999999</v>
+        <v>29.5</v>
       </c>
       <c r="E19">
-        <v>61931</v>
+        <v>20899</v>
       </c>
       <c r="F19">
-        <v>27.4</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="G19">
-        <v>23345</v>
+        <v>47701</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1324,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>27.4</v>
+        <v>70.5</v>
       </c>
       <c r="M19">
-        <v>23345</v>
+        <v>49861</v>
       </c>
       <c r="N19" t="s">
         <v>34</v>
@@ -1340,7 +1349,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1392,31 +1401,31 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C2">
-        <v>13447</v>
+        <v>34288</v>
       </c>
       <c r="D2">
-        <v>69.90000000000001</v>
+        <v>72</v>
       </c>
       <c r="E2">
-        <v>9394</v>
+        <v>24698</v>
       </c>
       <c r="F2">
-        <v>13.1</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>1761</v>
+        <v>9590</v>
       </c>
       <c r="H2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2292</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1425,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>30.1</v>
+        <v>28</v>
       </c>
       <c r="M2">
-        <v>4052</v>
+        <v>9590</v>
       </c>
       <c r="N2" t="s">
         <v>34</v>
@@ -1436,31 +1445,31 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>7041</v>
+        <v>67088</v>
       </c>
       <c r="D3">
-        <v>46.7</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3289</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>43.6</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>3072</v>
+        <v>67088</v>
       </c>
       <c r="H3">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1469,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>53.3</v>
+        <v>100</v>
       </c>
       <c r="M3">
-        <v>3752</v>
+        <v>67088</v>
       </c>
       <c r="N3" t="s">
         <v>34</v>
@@ -1480,31 +1489,31 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>29534</v>
+      </c>
+      <c r="D4">
+        <v>26.9</v>
+      </c>
+      <c r="E4">
+        <v>7934</v>
+      </c>
+      <c r="F4">
+        <v>57.2</v>
+      </c>
+      <c r="G4">
+        <v>16882</v>
+      </c>
+      <c r="H4">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>10157</v>
-      </c>
-      <c r="D4">
-        <v>55.1</v>
-      </c>
-      <c r="E4">
-        <v>5592</v>
-      </c>
-      <c r="F4">
-        <v>44.9</v>
-      </c>
-      <c r="G4">
-        <v>4566</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
-        <v>0</v>
+        <v>4718</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1513,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>44.9</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="M4">
-        <v>4566</v>
+        <v>21600</v>
       </c>
       <c r="N4" t="s">
         <v>34</v>
@@ -1524,31 +1533,31 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>11337</v>
+        <v>13447</v>
       </c>
       <c r="D5">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2678</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>72.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>8205</v>
+        <v>13447</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1557,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>76.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>8659</v>
+        <v>13447</v>
       </c>
       <c r="N5" t="s">
         <v>34</v>
@@ -1568,31 +1577,31 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C6">
-        <v>29534</v>
+        <v>11337</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1785</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>85.8</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>25351</v>
+        <v>11337</v>
       </c>
       <c r="H6">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2398</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1601,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M6">
-        <v>27749</v>
+        <v>11337</v>
       </c>
       <c r="N6" t="s">
         <v>34</v>
@@ -1612,75 +1621,75 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>10157</v>
+      </c>
+      <c r="D7">
+        <v>54.8</v>
+      </c>
+      <c r="E7">
+        <v>5567</v>
+      </c>
+      <c r="F7">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="G7">
+        <v>1928</v>
+      </c>
+      <c r="H7">
+        <v>18.1</v>
+      </c>
+      <c r="I7">
+        <v>1841</v>
+      </c>
+      <c r="J7">
+        <v>8.1</v>
+      </c>
+      <c r="K7">
+        <v>821</v>
+      </c>
+      <c r="L7">
+        <v>45.2</v>
+      </c>
+      <c r="M7">
+        <v>4591</v>
+      </c>
+      <c r="N7" t="s">
         <v>35</v>
-      </c>
-      <c r="C7">
-        <v>40604</v>
-      </c>
-      <c r="D7">
-        <v>16.6</v>
-      </c>
-      <c r="E7">
-        <v>6739</v>
-      </c>
-      <c r="F7">
-        <v>64.7</v>
-      </c>
-      <c r="G7">
-        <v>26251</v>
-      </c>
-      <c r="H7">
-        <v>18.7</v>
-      </c>
-      <c r="I7">
-        <v>7613</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>83.40000000000001</v>
-      </c>
-      <c r="M7">
-        <v>33864</v>
-      </c>
-      <c r="N7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8">
-        <v>16305</v>
+        <v>14770</v>
       </c>
       <c r="D8">
-        <v>83.8</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>13667</v>
+        <v>14770</v>
       </c>
       <c r="F8">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>2006</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>632</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1689,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>2638</v>
+        <v>0</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -1700,31 +1709,31 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9">
-        <v>11138</v>
+        <v>29534</v>
       </c>
       <c r="D9">
-        <v>33.5</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="E9">
-        <v>3730</v>
+        <v>20633</v>
       </c>
       <c r="F9">
-        <v>50.8</v>
+        <v>13.1</v>
       </c>
       <c r="G9">
-        <v>5656</v>
+        <v>3867</v>
       </c>
       <c r="H9">
-        <v>15.7</v>
+        <v>17</v>
       </c>
       <c r="I9">
-        <v>1752</v>
+        <v>5034</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1733,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>66.5</v>
+        <v>30.1</v>
       </c>
       <c r="M9">
-        <v>7409</v>
+        <v>8900</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -1744,31 +1753,31 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C10">
-        <v>13395</v>
+        <v>13447</v>
       </c>
       <c r="D10">
-        <v>50.5</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="E10">
-        <v>6760</v>
+        <v>9394</v>
       </c>
       <c r="F10">
-        <v>35.8</v>
+        <v>13.1</v>
       </c>
       <c r="G10">
-        <v>4800</v>
+        <v>1761</v>
       </c>
       <c r="H10">
-        <v>13.7</v>
+        <v>17</v>
       </c>
       <c r="I10">
-        <v>1835</v>
+        <v>2292</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1777,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>49.5</v>
+        <v>30.1</v>
       </c>
       <c r="M10">
-        <v>6635</v>
+        <v>4052</v>
       </c>
       <c r="N10" t="s">
         <v>34</v>
@@ -1788,43 +1797,43 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11">
-        <v>14770</v>
+        <v>12182</v>
       </c>
       <c r="D11">
-        <v>37.1</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="E11">
-        <v>5478</v>
+        <v>8511</v>
       </c>
       <c r="F11">
-        <v>45.6</v>
+        <v>13.1</v>
       </c>
       <c r="G11">
-        <v>6733</v>
+        <v>1595</v>
       </c>
       <c r="H11">
-        <v>14.2</v>
+        <v>17</v>
       </c>
       <c r="I11">
-        <v>2101</v>
+        <v>2076</v>
       </c>
       <c r="J11">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>458</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>62.9</v>
+        <v>30.1</v>
       </c>
       <c r="M11">
-        <v>9292</v>
+        <v>3671</v>
       </c>
       <c r="N11" t="s">
         <v>34</v>
@@ -1832,31 +1841,31 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12">
-        <v>34288</v>
+        <v>11769</v>
       </c>
       <c r="D12">
-        <v>40.2</v>
+        <v>46.7</v>
       </c>
       <c r="E12">
-        <v>13775</v>
+        <v>5498</v>
       </c>
       <c r="F12">
-        <v>59.8</v>
+        <v>43.6</v>
       </c>
       <c r="G12">
-        <v>20512</v>
+        <v>5135</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1136</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1865,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>59.8</v>
+        <v>53.3</v>
       </c>
       <c r="M12">
-        <v>20512</v>
+        <v>6271</v>
       </c>
       <c r="N12" t="s">
         <v>34</v>
@@ -1876,31 +1885,31 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C13">
-        <v>24796</v>
+        <v>40604</v>
       </c>
       <c r="D13">
-        <v>7.5</v>
+        <v>46.7</v>
       </c>
       <c r="E13">
-        <v>1870</v>
+        <v>18968</v>
       </c>
       <c r="F13">
-        <v>86.90000000000001</v>
+        <v>43.6</v>
       </c>
       <c r="G13">
-        <v>21548</v>
+        <v>17715</v>
       </c>
       <c r="H13">
-        <v>5.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I13">
-        <v>1378</v>
+        <v>3920</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1909,12 +1918,56 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>92.5</v>
+        <v>53.3</v>
       </c>
       <c r="M13">
-        <v>22926</v>
+        <v>21636</v>
       </c>
       <c r="N13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>10109</v>
+      </c>
+      <c r="D14">
+        <v>46.7</v>
+      </c>
+      <c r="E14">
+        <v>4722</v>
+      </c>
+      <c r="F14">
+        <v>43.6</v>
+      </c>
+      <c r="G14">
+        <v>4410</v>
+      </c>
+      <c r="H14">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="I14">
+        <v>976</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>53.3</v>
+      </c>
+      <c r="M14">
+        <v>5386</v>
+      </c>
+      <c r="N14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1925,7 +1978,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1977,25 +2030,25 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2">
-        <v>6723</v>
+        <v>3520</v>
       </c>
       <c r="D2">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3831</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>2893</v>
+        <v>3520</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2010,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="M2">
-        <v>2893</v>
+        <v>3520</v>
       </c>
       <c r="N2" t="s">
         <v>34</v>
@@ -2021,25 +2074,25 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>3520</v>
+        <v>33544</v>
       </c>
       <c r="D3">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>85.8</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>3022</v>
+        <v>33544</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2048,16 +2101,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>88.7</v>
+        <v>100</v>
       </c>
       <c r="M3">
-        <v>3124</v>
+        <v>33544</v>
       </c>
       <c r="N3" t="s">
         <v>34</v>
@@ -2065,31 +2118,31 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>5079</v>
+        <v>14767</v>
       </c>
       <c r="D4">
-        <v>77.40000000000001</v>
+        <v>49.6</v>
       </c>
       <c r="E4">
-        <v>3932</v>
+        <v>7322</v>
       </c>
       <c r="F4">
-        <v>22.6</v>
+        <v>20.2</v>
       </c>
       <c r="G4">
-        <v>1146</v>
+        <v>2978</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>30.3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4467</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2098,42 +2151,42 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>22.6</v>
+        <v>50.4</v>
       </c>
       <c r="M4">
-        <v>1146</v>
+        <v>7445</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>5668</v>
+        <v>6723</v>
       </c>
       <c r="D5">
-        <v>45.4</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2571</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>46.9</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>2660</v>
+        <v>6723</v>
       </c>
       <c r="H5">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2142,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>54.6</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>3098</v>
+        <v>6723</v>
       </c>
       <c r="N5" t="s">
         <v>34</v>
@@ -2153,25 +2206,25 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>14767</v>
+        <v>6091</v>
       </c>
       <c r="D6">
-        <v>5.9</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="E6">
-        <v>876</v>
+        <v>5120</v>
       </c>
       <c r="F6">
-        <v>94.09999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="G6">
-        <v>13891</v>
+        <v>971</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2186,42 +2239,42 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>94.09999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="M6">
-        <v>13891</v>
+        <v>971</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>20302</v>
+        <v>5668</v>
       </c>
       <c r="D7">
-        <v>41.1</v>
+        <v>50.8</v>
       </c>
       <c r="E7">
-        <v>8346</v>
+        <v>2879</v>
       </c>
       <c r="F7">
-        <v>28.1</v>
+        <v>49.2</v>
       </c>
       <c r="G7">
-        <v>5712</v>
+        <v>2789</v>
       </c>
       <c r="H7">
-        <v>30.8</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>6244</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2230,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>58.9</v>
+        <v>49.2</v>
       </c>
       <c r="M7">
-        <v>11956</v>
+        <v>2789</v>
       </c>
       <c r="N7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2244,22 +2297,22 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C8">
-        <v>8152</v>
+        <v>12398</v>
       </c>
       <c r="D8">
-        <v>61.7</v>
+        <v>56.5</v>
       </c>
       <c r="E8">
-        <v>5034</v>
+        <v>7003</v>
       </c>
       <c r="F8">
-        <v>38.3</v>
+        <v>43.5</v>
       </c>
       <c r="G8">
-        <v>3118</v>
+        <v>5395</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2274,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>38.3</v>
+        <v>43.5</v>
       </c>
       <c r="M8">
-        <v>3118</v>
+        <v>5395</v>
       </c>
       <c r="N8" t="s">
         <v>34</v>
@@ -2285,31 +2338,31 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>5569</v>
+        <v>33544</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>55.1</v>
       </c>
       <c r="E9">
-        <v>614</v>
+        <v>18497</v>
       </c>
       <c r="F9">
-        <v>76.40000000000001</v>
+        <v>44.9</v>
       </c>
       <c r="G9">
-        <v>4252</v>
+        <v>15047</v>
       </c>
       <c r="H9">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2318,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>89</v>
+        <v>44.9</v>
       </c>
       <c r="M9">
-        <v>4956</v>
+        <v>15047</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -2329,31 +2382,31 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>6697</v>
+        <v>14767</v>
       </c>
       <c r="D10">
-        <v>47.7</v>
+        <v>57</v>
       </c>
       <c r="E10">
-        <v>3193</v>
+        <v>8414</v>
       </c>
       <c r="F10">
-        <v>37.7</v>
+        <v>43</v>
       </c>
       <c r="G10">
-        <v>2526</v>
+        <v>6353</v>
       </c>
       <c r="H10">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>978</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2362,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>52.3</v>
+        <v>43</v>
       </c>
       <c r="M10">
-        <v>3504</v>
+        <v>6353</v>
       </c>
       <c r="N10" t="s">
         <v>34</v>
@@ -2373,31 +2426,31 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>7385</v>
+        <v>6723</v>
       </c>
       <c r="D11">
-        <v>50.6</v>
+        <v>57</v>
       </c>
       <c r="E11">
-        <v>3740</v>
+        <v>3831</v>
       </c>
       <c r="F11">
-        <v>45.4</v>
+        <v>43</v>
       </c>
       <c r="G11">
-        <v>3355</v>
+        <v>2893</v>
       </c>
       <c r="H11">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2406,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>49.4</v>
+        <v>43</v>
       </c>
       <c r="M11">
-        <v>3645</v>
+        <v>2893</v>
       </c>
       <c r="N11" t="s">
         <v>34</v>
@@ -2417,25 +2470,25 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>17144</v>
+        <v>6091</v>
       </c>
       <c r="D12">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E12">
-        <v>10461</v>
+        <v>3471</v>
       </c>
       <c r="F12">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G12">
-        <v>6683</v>
+        <v>2621</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2450,10 +2503,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M12">
-        <v>6683</v>
+        <v>2621</v>
       </c>
       <c r="N12" t="s">
         <v>34</v>
@@ -2461,45 +2514,133 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C13">
-        <v>12398</v>
+        <v>5884</v>
       </c>
       <c r="D13">
-        <v>44.3</v>
+        <v>11.3</v>
       </c>
       <c r="E13">
-        <v>5489</v>
+        <v>662</v>
       </c>
       <c r="F13">
-        <v>43.4</v>
+        <v>85.8</v>
       </c>
       <c r="G13">
-        <v>5386</v>
+        <v>5052</v>
       </c>
       <c r="H13">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1523</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="L13">
-        <v>55.7</v>
+        <v>88.7</v>
       </c>
       <c r="M13">
-        <v>6909</v>
+        <v>5222</v>
       </c>
       <c r="N13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>20302</v>
+      </c>
+      <c r="D14">
+        <v>11.3</v>
+      </c>
+      <c r="E14">
+        <v>2286</v>
+      </c>
+      <c r="F14">
+        <v>85.8</v>
+      </c>
+      <c r="G14">
+        <v>17429</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2.9</v>
+      </c>
+      <c r="K14">
+        <v>587</v>
+      </c>
+      <c r="L14">
+        <v>88.7</v>
+      </c>
+      <c r="M14">
+        <v>18016</v>
+      </c>
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>5054</v>
+      </c>
+      <c r="D15">
+        <v>11.3</v>
+      </c>
+      <c r="E15">
+        <v>569</v>
+      </c>
+      <c r="F15">
+        <v>85.8</v>
+      </c>
+      <c r="G15">
+        <v>4339</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2.9</v>
+      </c>
+      <c r="K15">
+        <v>146</v>
+      </c>
+      <c r="L15">
+        <v>88.7</v>
+      </c>
+      <c r="M15">
+        <v>4485</v>
+      </c>
+      <c r="N15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2510,7 +2651,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2562,46 +2703,266 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>44301</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>10207</v>
+      </c>
+      <c r="F2">
+        <v>49.7</v>
+      </c>
+      <c r="G2">
+        <v>22014</v>
+      </c>
+      <c r="H2">
+        <v>27.3</v>
+      </c>
+      <c r="I2">
+        <v>12079</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>77</v>
+      </c>
+      <c r="M2">
+        <v>34094</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>20170</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>20170</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>20170</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>18273</v>
+      </c>
+      <c r="D4">
+        <v>78.2</v>
+      </c>
+      <c r="E4">
+        <v>14290</v>
+      </c>
+      <c r="F4">
+        <v>21.8</v>
+      </c>
+      <c r="G4">
+        <v>3983</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>21.8</v>
+      </c>
+      <c r="M4">
+        <v>3983</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>17005</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>17005</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>17005</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="C2">
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>15236</v>
+      </c>
+      <c r="D6">
+        <v>23.3</v>
+      </c>
+      <c r="E6">
+        <v>3554</v>
+      </c>
+      <c r="F6">
+        <v>76.7</v>
+      </c>
+      <c r="G6">
+        <v>11682</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>76.7</v>
+      </c>
+      <c r="M6">
+        <v>11682</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
         <v>22154</v>
       </c>
-      <c r="D2">
-        <v>35.7</v>
-      </c>
-      <c r="E2">
-        <v>7909</v>
-      </c>
-      <c r="F2">
-        <v>53</v>
-      </c>
-      <c r="G2">
-        <v>11747</v>
-      </c>
-      <c r="H2">
-        <v>11.3</v>
-      </c>
-      <c r="I2">
-        <v>2498</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>64.3</v>
-      </c>
-      <c r="M2">
-        <v>14245</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>22154</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/03_pin_percentage_total_OCHA.xlsx
+++ b/output_validation/03_pin_percentage_total_OCHA.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="42">
-  <si>
-    <t>admin3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="39">
+  <si>
+    <t>admin1</t>
   </si>
   <si>
     <t>Population group</t>
@@ -61,85 +61,76 @@
     <t>Area severity</t>
   </si>
   <si>
-    <t>MMR008003</t>
-  </si>
-  <si>
-    <t>MMR009018</t>
-  </si>
-  <si>
-    <t>MMR009019</t>
-  </si>
-  <si>
-    <t>MMR009020</t>
-  </si>
-  <si>
-    <t>MMR012003</t>
-  </si>
-  <si>
-    <t>MMR012004</t>
-  </si>
-  <si>
-    <t>MMR012006</t>
-  </si>
-  <si>
-    <t>MMR012010</t>
-  </si>
-  <si>
-    <t>MMR012011</t>
-  </si>
-  <si>
-    <t>MMR012014</t>
-  </si>
-  <si>
-    <t>MMR012015</t>
-  </si>
-  <si>
-    <t>MMR012016</t>
-  </si>
-  <si>
-    <t>MMR001001</t>
-  </si>
-  <si>
-    <t>MMR001002</t>
-  </si>
-  <si>
-    <t>MMR001004</t>
-  </si>
-  <si>
-    <t>MMR002005</t>
-  </si>
-  <si>
-    <t>MMR002006</t>
-  </si>
-  <si>
-    <t>MMR002007</t>
+    <t>MMR001</t>
+  </si>
+  <si>
+    <t>MMR002</t>
+  </si>
+  <si>
+    <t>MMR003</t>
+  </si>
+  <si>
+    <t>MMR004</t>
+  </si>
+  <si>
+    <t>MMR005</t>
+  </si>
+  <si>
+    <t>MMR006</t>
+  </si>
+  <si>
+    <t>MMR007</t>
+  </si>
+  <si>
+    <t>MMR008</t>
+  </si>
+  <si>
+    <t>MMR009</t>
+  </si>
+  <si>
+    <t>MMR010</t>
+  </si>
+  <si>
+    <t>MMR011</t>
+  </si>
+  <si>
+    <t>MMR012</t>
+  </si>
+  <si>
+    <t>MMR013</t>
+  </si>
+  <si>
+    <t>MMR014</t>
+  </si>
+  <si>
+    <t>MMR015</t>
+  </si>
+  <si>
+    <t>MMR016</t>
+  </si>
+  <si>
+    <t>MMR017</t>
+  </si>
+  <si>
+    <t>MMR018</t>
   </si>
   <si>
     <t>ocap</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>1-2</t>
   </si>
   <si>
-    <t>3</t>
+    <t>idp</t>
+  </si>
+  <si>
+    <t>ret</t>
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>MMR012001</t>
-  </si>
-  <si>
-    <t>MMR012005</t>
-  </si>
-  <si>
-    <t>MMR012007</t>
-  </si>
-  <si>
-    <t>idp</t>
-  </si>
-  <si>
-    <t>ret</t>
   </si>
   <si>
     <t>ndsp</t>
@@ -558,37 +549,37 @@
         <v>32</v>
       </c>
       <c r="C2">
-        <v>206737</v>
+        <v>94127</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="E2">
-        <v>206737</v>
+        <v>69230</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>22094</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>26.4</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>24896</v>
       </c>
       <c r="N2" t="s">
         <v>33</v>
@@ -602,25 +593,25 @@
         <v>32</v>
       </c>
       <c r="C3">
-        <v>240015</v>
+        <v>49284</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>14199</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="G3">
-        <v>240015</v>
+        <v>33207</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1877</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -629,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>71.2</v>
       </c>
       <c r="M3">
-        <v>240015</v>
+        <v>35085</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -646,40 +637,40 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>49284</v>
+        <v>71100</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>54.3</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>38598</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>39.8</v>
       </c>
       <c r="G4">
-        <v>49284</v>
+        <v>28273</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3912</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>45.7</v>
       </c>
       <c r="M4">
-        <v>49284</v>
+        <v>32503</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -690,40 +681,40 @@
         <v>32</v>
       </c>
       <c r="C5">
-        <v>469612</v>
+        <v>79357</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>29.6</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>23469</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>65.8</v>
       </c>
       <c r="G5">
-        <v>469612</v>
+        <v>52207</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2804</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>877</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="M5">
-        <v>469612</v>
+        <v>55888</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -734,40 +725,40 @@
         <v>32</v>
       </c>
       <c r="C6">
-        <v>94127</v>
+        <v>206737</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>44841</v>
       </c>
       <c r="F6">
-        <v>69.59999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G6">
-        <v>65556</v>
+        <v>151037</v>
       </c>
       <c r="H6">
-        <v>30.4</v>
+        <v>4.8</v>
       </c>
       <c r="I6">
-        <v>28571</v>
+        <v>9848</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>78.3</v>
       </c>
       <c r="M6">
-        <v>94127</v>
+        <v>161896</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -778,25 +769,25 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>85275</v>
+        <v>284225</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>206212</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>23.7</v>
       </c>
       <c r="G7">
-        <v>85275</v>
+        <v>67381</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>10632</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -805,13 +796,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>27.4</v>
       </c>
       <c r="M7">
-        <v>85275</v>
+        <v>78013</v>
       </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -822,40 +813,40 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>173573</v>
+        <v>114132</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>88451</v>
       </c>
       <c r="F8">
-        <v>86.09999999999999</v>
+        <v>21</v>
       </c>
       <c r="G8">
-        <v>149515</v>
+        <v>23946</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1736</v>
       </c>
       <c r="J8">
-        <v>13.9</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>24058</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>22.5</v>
       </c>
       <c r="M8">
-        <v>173573</v>
+        <v>25682</v>
       </c>
       <c r="N8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -866,25 +857,25 @@
         <v>32</v>
       </c>
       <c r="C9">
-        <v>103387</v>
+        <v>82380</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>75.7</v>
       </c>
       <c r="E9">
-        <v>103387</v>
+        <v>62340</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>13805</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>6236</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -893,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>24.3</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>20041</v>
       </c>
       <c r="N9" t="s">
         <v>33</v>
@@ -910,25 +901,25 @@
         <v>32</v>
       </c>
       <c r="C10">
-        <v>93763</v>
+        <v>77970</v>
       </c>
       <c r="D10">
-        <v>41.9</v>
+        <v>78.2</v>
       </c>
       <c r="E10">
-        <v>39294</v>
+        <v>60939</v>
       </c>
       <c r="F10">
-        <v>58.1</v>
+        <v>20.5</v>
       </c>
       <c r="G10">
-        <v>54469</v>
+        <v>15970</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1061</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -937,13 +928,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>58.1</v>
+        <v>21.8</v>
       </c>
       <c r="M10">
-        <v>54469</v>
+        <v>17031</v>
       </c>
       <c r="N10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -957,37 +948,37 @@
         <v>469612</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>363402</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>18.4</v>
       </c>
       <c r="G11">
-        <v>469612</v>
+        <v>86190</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>16642</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3379</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>22.6</v>
       </c>
       <c r="M11">
-        <v>469612</v>
+        <v>106210</v>
       </c>
       <c r="N11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -998,40 +989,40 @@
         <v>32</v>
       </c>
       <c r="C12">
-        <v>114132</v>
+        <v>93763</v>
       </c>
       <c r="D12">
-        <v>38.6</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E12">
-        <v>44104</v>
+        <v>63382</v>
       </c>
       <c r="F12">
-        <v>61.4</v>
+        <v>15.6</v>
       </c>
       <c r="G12">
-        <v>70028</v>
+        <v>14645</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>8175</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>7561</v>
       </c>
       <c r="L12">
-        <v>61.4</v>
+        <v>32.4</v>
       </c>
       <c r="M12">
-        <v>70028</v>
+        <v>30381</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1042,37 +1033,37 @@
         <v>32</v>
       </c>
       <c r="C13">
-        <v>94050</v>
+        <v>103387</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>46.2</v>
       </c>
       <c r="E13">
-        <v>94050</v>
+        <v>47756</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>48.2</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>49819</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>5404</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>53.8</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>55631</v>
       </c>
       <c r="N13" t="s">
         <v>33</v>
@@ -1086,37 +1077,37 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>206737</v>
+        <v>94050</v>
       </c>
       <c r="D14">
-        <v>91.40000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="E14">
-        <v>188972</v>
+        <v>61865</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>24464</v>
       </c>
       <c r="H14">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="I14">
-        <v>17765</v>
+        <v>7317</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="L14">
-        <v>8.6</v>
+        <v>34.2</v>
       </c>
       <c r="M14">
-        <v>17765</v>
+        <v>32185</v>
       </c>
       <c r="N14" t="s">
         <v>33</v>
@@ -1130,25 +1121,25 @@
         <v>32</v>
       </c>
       <c r="C15">
-        <v>94127</v>
+        <v>240015</v>
       </c>
       <c r="D15">
-        <v>91.40000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="E15">
-        <v>86039</v>
+        <v>196208</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>33230</v>
       </c>
       <c r="H15">
-        <v>8.6</v>
+        <v>4.4</v>
       </c>
       <c r="I15">
-        <v>8088</v>
+        <v>10577</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1157,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.6</v>
+        <v>18.3</v>
       </c>
       <c r="M15">
-        <v>8088</v>
+        <v>43807</v>
       </c>
       <c r="N15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1174,37 +1165,37 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>85275</v>
+        <v>173573</v>
       </c>
       <c r="D16">
-        <v>91.40000000000001</v>
+        <v>53.8</v>
       </c>
       <c r="E16">
-        <v>77948</v>
+        <v>93404</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>39.8</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>69037</v>
       </c>
       <c r="H16">
-        <v>8.6</v>
+        <v>5.8</v>
       </c>
       <c r="I16">
-        <v>7328</v>
+        <v>10115</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="L16">
-        <v>8.6</v>
+        <v>46.2</v>
       </c>
       <c r="M16">
-        <v>7328</v>
+        <v>80170</v>
       </c>
       <c r="N16" t="s">
         <v>33</v>
@@ -1218,25 +1209,25 @@
         <v>32</v>
       </c>
       <c r="C17">
-        <v>82380</v>
+        <v>70760</v>
       </c>
       <c r="D17">
-        <v>29.5</v>
+        <v>85.5</v>
       </c>
       <c r="E17">
-        <v>24331</v>
+        <v>60490</v>
       </c>
       <c r="F17">
-        <v>67.40000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="G17">
-        <v>55534</v>
+        <v>7743</v>
       </c>
       <c r="H17">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I17">
-        <v>2515</v>
+        <v>2528</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1245,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>70.5</v>
+        <v>14.5</v>
       </c>
       <c r="M17">
-        <v>58049</v>
+        <v>10271</v>
       </c>
       <c r="N17" t="s">
         <v>34</v>
@@ -1262,37 +1253,37 @@
         <v>32</v>
       </c>
       <c r="C18">
-        <v>284225</v>
+        <v>81840</v>
       </c>
       <c r="D18">
-        <v>29.5</v>
+        <v>92.5</v>
       </c>
       <c r="E18">
-        <v>83946</v>
+        <v>75687</v>
       </c>
       <c r="F18">
-        <v>67.40000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="G18">
-        <v>191602</v>
+        <v>2975</v>
       </c>
       <c r="H18">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I18">
-        <v>8677</v>
+        <v>2695</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="L18">
-        <v>70.5</v>
+        <v>7.5</v>
       </c>
       <c r="M18">
-        <v>200279</v>
+        <v>6153</v>
       </c>
       <c r="N18" t="s">
         <v>34</v>
@@ -1306,25 +1297,25 @@
         <v>32</v>
       </c>
       <c r="C19">
-        <v>70760</v>
+        <v>85275</v>
       </c>
       <c r="D19">
-        <v>29.5</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E19">
-        <v>20899</v>
+        <v>74295</v>
       </c>
       <c r="F19">
-        <v>67.40000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="G19">
-        <v>47701</v>
+        <v>7273</v>
       </c>
       <c r="H19">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="I19">
-        <v>2160</v>
+        <v>3707</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1333,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>70.5</v>
+        <v>12.9</v>
       </c>
       <c r="M19">
-        <v>49861</v>
+        <v>10980</v>
       </c>
       <c r="N19" t="s">
         <v>34</v>
@@ -1349,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1401,31 +1392,31 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>34288</v>
+        <v>13447</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E2">
-        <v>24698</v>
+        <v>9556</v>
       </c>
       <c r="F2">
-        <v>28</v>
+        <v>19.4</v>
       </c>
       <c r="G2">
-        <v>9590</v>
+        <v>2609</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1282</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1434,262 +1425,262 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>28</v>
+        <v>28.9</v>
       </c>
       <c r="M2">
-        <v>9590</v>
+        <v>3891</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>67088</v>
+        <v>7041</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>32.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2317</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>60.4</v>
       </c>
       <c r="G3">
-        <v>67088</v>
+        <v>4250</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="M3">
-        <v>67088</v>
+        <v>4724</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4">
-        <v>29534</v>
+        <v>10157</v>
       </c>
       <c r="D4">
-        <v>26.9</v>
+        <v>45.1</v>
       </c>
       <c r="E4">
-        <v>7934</v>
+        <v>4586</v>
       </c>
       <c r="F4">
-        <v>57.2</v>
+        <v>47</v>
       </c>
       <c r="G4">
-        <v>16882</v>
+        <v>4772</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>3.9</v>
       </c>
       <c r="I4">
-        <v>4718</v>
+        <v>397</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="L4">
-        <v>73.09999999999999</v>
+        <v>54.9</v>
       </c>
       <c r="M4">
-        <v>21600</v>
+        <v>5571</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>13447</v>
+        <v>11337</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2741</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="G5">
-        <v>13447</v>
+        <v>8270</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>75.8</v>
       </c>
       <c r="M5">
-        <v>13447</v>
+        <v>8595</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C6">
-        <v>11337</v>
+        <v>29534</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="G6">
-        <v>11337</v>
+        <v>25358</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2590</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="M6">
-        <v>11337</v>
+        <v>28614</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>10157</v>
+        <v>40604</v>
       </c>
       <c r="D7">
-        <v>54.8</v>
+        <v>34.5</v>
       </c>
       <c r="E7">
-        <v>5567</v>
+        <v>14021</v>
       </c>
       <c r="F7">
-        <v>19</v>
+        <v>56.6</v>
       </c>
       <c r="G7">
-        <v>1928</v>
+        <v>22975</v>
       </c>
       <c r="H7">
-        <v>18.1</v>
+        <v>5.9</v>
       </c>
       <c r="I7">
-        <v>1841</v>
+        <v>2407</v>
       </c>
       <c r="J7">
-        <v>8.1</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>821</v>
+        <v>1201</v>
       </c>
       <c r="L7">
-        <v>45.2</v>
+        <v>65.5</v>
       </c>
       <c r="M7">
-        <v>4591</v>
+        <v>26583</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>14770</v>
+        <v>16305</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="E8">
-        <v>14770</v>
+        <v>10879</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>4239</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1186</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1698,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5425</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -1709,163 +1700,163 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>29534</v>
+        <v>11138</v>
       </c>
       <c r="D9">
-        <v>69.90000000000001</v>
+        <v>43</v>
       </c>
       <c r="E9">
-        <v>20633</v>
+        <v>4790</v>
       </c>
       <c r="F9">
-        <v>13.1</v>
+        <v>43.9</v>
       </c>
       <c r="G9">
-        <v>3867</v>
+        <v>4886</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>7.4</v>
       </c>
       <c r="I9">
-        <v>5034</v>
+        <v>829</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="L9">
-        <v>30.1</v>
+        <v>57</v>
       </c>
       <c r="M9">
-        <v>8900</v>
+        <v>6349</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>13447</v>
+        <v>13395</v>
       </c>
       <c r="D10">
-        <v>69.90000000000001</v>
+        <v>50.4</v>
       </c>
       <c r="E10">
-        <v>9394</v>
+        <v>6748</v>
       </c>
       <c r="F10">
-        <v>13.1</v>
+        <v>32.7</v>
       </c>
       <c r="G10">
-        <v>1761</v>
+        <v>4379</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>6.9</v>
       </c>
       <c r="I10">
-        <v>2292</v>
+        <v>928</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1340</v>
       </c>
       <c r="L10">
-        <v>30.1</v>
+        <v>49.6</v>
       </c>
       <c r="M10">
-        <v>4052</v>
+        <v>6647</v>
       </c>
       <c r="N10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>12182</v>
+        <v>14770</v>
       </c>
       <c r="D11">
-        <v>69.90000000000001</v>
+        <v>30.4</v>
       </c>
       <c r="E11">
-        <v>8511</v>
+        <v>4494</v>
       </c>
       <c r="F11">
-        <v>13.1</v>
+        <v>53.1</v>
       </c>
       <c r="G11">
-        <v>1595</v>
+        <v>7847</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>14.7</v>
       </c>
       <c r="I11">
-        <v>2076</v>
+        <v>2164</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="L11">
-        <v>30.1</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="M11">
-        <v>3671</v>
+        <v>10275</v>
       </c>
       <c r="N11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>11769</v>
+        <v>34288</v>
       </c>
       <c r="D12">
-        <v>46.7</v>
+        <v>53.5</v>
       </c>
       <c r="E12">
-        <v>5498</v>
+        <v>18348</v>
       </c>
       <c r="F12">
-        <v>43.6</v>
+        <v>42.8</v>
       </c>
       <c r="G12">
-        <v>5135</v>
+        <v>14670</v>
       </c>
       <c r="H12">
-        <v>9.699999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="I12">
-        <v>1136</v>
+        <v>1269</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1874,42 +1865,42 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>53.3</v>
+        <v>46.5</v>
       </c>
       <c r="M12">
-        <v>6271</v>
+        <v>15939</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C13">
-        <v>40604</v>
+        <v>24796</v>
       </c>
       <c r="D13">
-        <v>46.7</v>
+        <v>16.1</v>
       </c>
       <c r="E13">
-        <v>18968</v>
+        <v>3983</v>
       </c>
       <c r="F13">
-        <v>43.6</v>
+        <v>81</v>
       </c>
       <c r="G13">
-        <v>17715</v>
+        <v>20096</v>
       </c>
       <c r="H13">
-        <v>9.699999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="I13">
-        <v>3920</v>
+        <v>718</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1918,57 +1909,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>53.3</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="M13">
-        <v>21636</v>
+        <v>20813</v>
       </c>
       <c r="N13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14">
-        <v>10109</v>
-      </c>
-      <c r="D14">
-        <v>46.7</v>
-      </c>
-      <c r="E14">
-        <v>4722</v>
-      </c>
-      <c r="F14">
-        <v>43.6</v>
-      </c>
-      <c r="G14">
-        <v>4410</v>
-      </c>
-      <c r="H14">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="I14">
-        <v>976</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>53.3</v>
-      </c>
-      <c r="M14">
-        <v>5386</v>
-      </c>
-      <c r="N14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1978,7 +1925,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2030,31 +1977,31 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C2">
-        <v>3520</v>
+        <v>6723</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>59.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>4030</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>36.4</v>
       </c>
       <c r="G2">
-        <v>3520</v>
+        <v>2445</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2063,86 +2010,86 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>40.1</v>
       </c>
       <c r="M2">
-        <v>3520</v>
+        <v>2694</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C3">
-        <v>33544</v>
+        <v>3520</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>16.4</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>72.7</v>
       </c>
       <c r="G3">
-        <v>33544</v>
+        <v>2559</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="M3">
-        <v>33544</v>
+        <v>2942</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
       <c r="C4">
-        <v>14767</v>
+        <v>5079</v>
       </c>
       <c r="D4">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="E4">
-        <v>7322</v>
+        <v>2498</v>
       </c>
       <c r="F4">
-        <v>20.2</v>
+        <v>50.2</v>
       </c>
       <c r="G4">
-        <v>2978</v>
+        <v>2548</v>
       </c>
       <c r="H4">
-        <v>30.3</v>
+        <v>0.6</v>
       </c>
       <c r="I4">
-        <v>4467</v>
+        <v>33</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2151,42 +2098,42 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>50.4</v>
+        <v>50.8</v>
       </c>
       <c r="M4">
-        <v>7445</v>
+        <v>2581</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C5">
-        <v>6723</v>
+        <v>5668</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>40.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2306</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>54.4</v>
       </c>
       <c r="G5">
-        <v>6723</v>
+        <v>3082</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2195,36 +2142,36 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>59.3</v>
       </c>
       <c r="M5">
-        <v>6723</v>
+        <v>3362</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6">
-        <v>6091</v>
+        <v>14767</v>
       </c>
       <c r="D6">
-        <v>84.09999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="E6">
-        <v>5120</v>
+        <v>1117</v>
       </c>
       <c r="F6">
-        <v>15.9</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="G6">
-        <v>971</v>
+        <v>13650</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2239,10 +2186,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.9</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="M6">
-        <v>971</v>
+        <v>13650</v>
       </c>
       <c r="N6" t="s">
         <v>33</v>
@@ -2250,31 +2197,31 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7">
-        <v>5668</v>
+        <v>20302</v>
       </c>
       <c r="D7">
-        <v>50.8</v>
+        <v>55</v>
       </c>
       <c r="E7">
-        <v>2879</v>
+        <v>11160</v>
       </c>
       <c r="F7">
-        <v>49.2</v>
+        <v>38.9</v>
       </c>
       <c r="G7">
-        <v>2789</v>
+        <v>7903</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1239</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2283,13 +2230,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>49.2</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>2789</v>
+        <v>9142</v>
       </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2297,28 +2244,28 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>12398</v>
+        <v>8152</v>
       </c>
       <c r="D8">
-        <v>56.5</v>
+        <v>47.3</v>
       </c>
       <c r="E8">
-        <v>7003</v>
+        <v>3858</v>
       </c>
       <c r="F8">
-        <v>43.5</v>
+        <v>48.4</v>
       </c>
       <c r="G8">
-        <v>5395</v>
+        <v>3942</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2327,174 +2274,174 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>43.5</v>
+        <v>52.7</v>
       </c>
       <c r="M8">
-        <v>5395</v>
+        <v>4295</v>
       </c>
       <c r="N8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9">
-        <v>33544</v>
+        <v>5569</v>
       </c>
       <c r="D9">
-        <v>55.1</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>18497</v>
+        <v>1561</v>
       </c>
       <c r="F9">
-        <v>44.9</v>
+        <v>53.7</v>
       </c>
       <c r="G9">
-        <v>15047</v>
+        <v>2990</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="L9">
-        <v>44.9</v>
+        <v>72</v>
       </c>
       <c r="M9">
-        <v>15047</v>
+        <v>4009</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10">
-        <v>14767</v>
+        <v>6697</v>
       </c>
       <c r="D10">
-        <v>57</v>
+        <v>53.4</v>
       </c>
       <c r="E10">
-        <v>8414</v>
+        <v>3575</v>
       </c>
       <c r="F10">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G10">
-        <v>6353</v>
+        <v>2073</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="L10">
-        <v>43</v>
+        <v>46.6</v>
       </c>
       <c r="M10">
-        <v>6353</v>
+        <v>3122</v>
       </c>
       <c r="N10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11">
-        <v>6723</v>
+        <v>7385</v>
       </c>
       <c r="D11">
-        <v>57</v>
+        <v>32.9</v>
       </c>
       <c r="E11">
-        <v>3831</v>
+        <v>2428</v>
       </c>
       <c r="F11">
-        <v>43</v>
+        <v>58.4</v>
       </c>
       <c r="G11">
-        <v>2893</v>
+        <v>4312</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L11">
-        <v>43</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="M11">
-        <v>2893</v>
+        <v>4957</v>
       </c>
       <c r="N11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12">
-        <v>6091</v>
+        <v>17144</v>
       </c>
       <c r="D12">
-        <v>57</v>
+        <v>59.3</v>
       </c>
       <c r="E12">
-        <v>3471</v>
+        <v>10164</v>
       </c>
       <c r="F12">
-        <v>43</v>
+        <v>20.6</v>
       </c>
       <c r="G12">
-        <v>2621</v>
+        <v>3540</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>20.1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3440</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2503,145 +2450,57 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>43</v>
+        <v>40.7</v>
       </c>
       <c r="M12">
-        <v>2621</v>
+        <v>6980</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13">
-        <v>5884</v>
+        <v>12398</v>
       </c>
       <c r="D13">
-        <v>11.3</v>
+        <v>36.7</v>
       </c>
       <c r="E13">
-        <v>662</v>
+        <v>4546</v>
       </c>
       <c r="F13">
-        <v>85.8</v>
+        <v>51.7</v>
       </c>
       <c r="G13">
-        <v>5052</v>
+        <v>6407</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>782</v>
       </c>
       <c r="J13">
-        <v>2.9</v>
+        <v>5.3</v>
       </c>
       <c r="K13">
-        <v>170</v>
+        <v>663</v>
       </c>
       <c r="L13">
-        <v>88.7</v>
+        <v>63.3</v>
       </c>
       <c r="M13">
-        <v>5222</v>
+        <v>7852</v>
       </c>
       <c r="N13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <v>20302</v>
-      </c>
-      <c r="D14">
-        <v>11.3</v>
-      </c>
-      <c r="E14">
-        <v>2286</v>
-      </c>
-      <c r="F14">
-        <v>85.8</v>
-      </c>
-      <c r="G14">
-        <v>17429</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>2.9</v>
-      </c>
-      <c r="K14">
-        <v>587</v>
-      </c>
-      <c r="L14">
-        <v>88.7</v>
-      </c>
-      <c r="M14">
-        <v>18016</v>
-      </c>
-      <c r="N14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15">
-        <v>5054</v>
-      </c>
-      <c r="D15">
-        <v>11.3</v>
-      </c>
-      <c r="E15">
-        <v>569</v>
-      </c>
-      <c r="F15">
-        <v>85.8</v>
-      </c>
-      <c r="G15">
-        <v>4339</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>2.9</v>
-      </c>
-      <c r="K15">
-        <v>146</v>
-      </c>
-      <c r="L15">
-        <v>88.7</v>
-      </c>
-      <c r="M15">
-        <v>4485</v>
-      </c>
-      <c r="N15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2651,7 +2510,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2703,265 +2562,45 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2">
-        <v>44301</v>
+        <v>22154</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E2">
-        <v>10207</v>
+        <v>7094</v>
       </c>
       <c r="F2">
-        <v>49.7</v>
+        <v>60.9</v>
       </c>
       <c r="G2">
-        <v>22014</v>
+        <v>13492</v>
       </c>
       <c r="H2">
-        <v>27.3</v>
+        <v>6.8</v>
       </c>
       <c r="I2">
-        <v>12079</v>
+        <v>1507</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L2">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="M2">
-        <v>34094</v>
+        <v>15060</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3">
-        <v>20170</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>20170</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>100</v>
-      </c>
-      <c r="M3">
-        <v>20170</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4">
-        <v>18273</v>
-      </c>
-      <c r="D4">
-        <v>78.2</v>
-      </c>
-      <c r="E4">
-        <v>14290</v>
-      </c>
-      <c r="F4">
-        <v>21.8</v>
-      </c>
-      <c r="G4">
-        <v>3983</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>21.8</v>
-      </c>
-      <c r="M4">
-        <v>3983</v>
-      </c>
-      <c r="N4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5">
-        <v>17005</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>17005</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>100</v>
-      </c>
-      <c r="M5">
-        <v>17005</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6">
-        <v>15236</v>
-      </c>
-      <c r="D6">
-        <v>23.3</v>
-      </c>
-      <c r="E6">
-        <v>3554</v>
-      </c>
-      <c r="F6">
-        <v>76.7</v>
-      </c>
-      <c r="G6">
-        <v>11682</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>76.7</v>
-      </c>
-      <c r="M6">
-        <v>11682</v>
-      </c>
-      <c r="N6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7">
-        <v>22154</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>22154</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
         <v>33</v>
       </c>
     </row>
